--- a/Data/FamilyPlanning.xlsx
+++ b/Data/FamilyPlanning.xlsx
@@ -60,7 +60,7 @@
     <t>Is there any more information you would like to share about why you may/may not have more children?</t>
   </si>
   <si>
-    <t>Open response</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
